--- a/SSDMS_Requirements/SCGJ_Updated_Excel/SCGJ_Sheets.xlsx
+++ b/SSDMS_Requirements/SCGJ_Updated_Excel/SCGJ_Sheets.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Candidate" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -216,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>Candidate Details ID</t>
   </si>
@@ -557,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -621,11 +622,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -687,7 +768,31 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,14 +834,6 @@
       <color rgb="FFFDFD63"/>
     </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1025,35 +1122,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -1121,8 +1218,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:21" ht="22.2" customHeight="1"/>
     <row r="8" spans="1:21">
       <c r="C8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="Q9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1135,37 +1238,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1276,22 +1379,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="14.4" customHeight="1">
       <c r="F13" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:26">
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+    <row r="14" spans="1:26" ht="14.4" customHeight="1">
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:26">
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+    <row r="15" spans="1:26" ht="14.4" customHeight="1">
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1311,10 +1414,10 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1348,15 +1451,15 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1395,12 +1498,12 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1431,10 +1534,10 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1459,11 +1562,11 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1487,17 +1590,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
